--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H2">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q2">
-        <v>12.41778164161455</v>
+        <v>27.74874070929689</v>
       </c>
       <c r="R2">
-        <v>111.760034774531</v>
+        <v>249.738666383672</v>
       </c>
       <c r="S2">
-        <v>0.002260460209336913</v>
+        <v>0.00700193360076945</v>
       </c>
       <c r="T2">
-        <v>0.002260460209336913</v>
+        <v>0.007001933600769453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H3">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N3">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O3">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P3">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q3">
-        <v>14.90879706979056</v>
+        <v>32.92014137215222</v>
       </c>
       <c r="R3">
-        <v>134.179173628115</v>
+        <v>296.28127234937</v>
       </c>
       <c r="S3">
-        <v>0.002713910062035731</v>
+        <v>0.008306850621820301</v>
       </c>
       <c r="T3">
-        <v>0.002713910062035731</v>
+        <v>0.008306850621820303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H4">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N4">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O4">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P4">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q4">
-        <v>20.20919633204634</v>
+        <v>15.29377067636867</v>
       </c>
       <c r="R4">
-        <v>181.882766988417</v>
+        <v>137.643936087318</v>
       </c>
       <c r="S4">
-        <v>0.003678763686597461</v>
+        <v>0.003859128884556927</v>
       </c>
       <c r="T4">
-        <v>0.003678763686597461</v>
+        <v>0.003859128884556928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H5">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I5">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J5">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N5">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O5">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P5">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q5">
-        <v>1.523589588725111</v>
+        <v>4.472336393888</v>
       </c>
       <c r="R5">
-        <v>13.712306298526</v>
+        <v>40.25102754499201</v>
       </c>
       <c r="S5">
-        <v>0.0002773453214164682</v>
+        <v>0.001128519769540992</v>
       </c>
       <c r="T5">
-        <v>0.0002773453214164681</v>
+        <v>0.001128519769540992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H6">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I6">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J6">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N6">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O6">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P6">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q6">
-        <v>13.86984166903989</v>
+        <v>18.12039106969911</v>
       </c>
       <c r="R6">
-        <v>124.828575021359</v>
+        <v>163.083519627292</v>
       </c>
       <c r="S6">
-        <v>0.00252478470853441</v>
+        <v>0.004572379569192484</v>
       </c>
       <c r="T6">
-        <v>0.002524784708534409</v>
+        <v>0.004572379569192486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N7">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O7">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P7">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q7">
-        <v>1053.130367955269</v>
+        <v>1065.767096349995</v>
       </c>
       <c r="R7">
-        <v>9478.173311597417</v>
+        <v>9591.903867149955</v>
       </c>
       <c r="S7">
-        <v>0.1917056814744978</v>
+        <v>0.2689286162822994</v>
       </c>
       <c r="T7">
-        <v>0.1917056814744978</v>
+        <v>0.2689286162822994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J8">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q8">
         <v>1264.389034774293</v>
@@ -948,10 +948,10 @@
         <v>11379.50131296863</v>
       </c>
       <c r="S8">
-        <v>0.2301619713340028</v>
+        <v>0.3190475618255506</v>
       </c>
       <c r="T8">
-        <v>0.2301619713340028</v>
+        <v>0.3190475618255507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>24.890459</v>
       </c>
       <c r="I9">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J9">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N9">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O9">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P9">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q9">
-        <v>1713.906636747804</v>
+        <v>587.3995413613543</v>
       </c>
       <c r="R9">
-        <v>15425.15973073023</v>
+        <v>5286.595872252188</v>
       </c>
       <c r="S9">
-        <v>0.3119895216955305</v>
+        <v>0.1482205130972535</v>
       </c>
       <c r="T9">
-        <v>0.3119895216955305</v>
+        <v>0.1482205130972535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>24.890459</v>
       </c>
       <c r="I10">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J10">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N10">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O10">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P10">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q10">
-        <v>129.2129714062416</v>
+        <v>171.772442661424</v>
       </c>
       <c r="R10">
-        <v>1162.916742656174</v>
+        <v>1545.951983952816</v>
       </c>
       <c r="S10">
-        <v>0.02352117220479817</v>
+        <v>0.04334392146142706</v>
       </c>
       <c r="T10">
-        <v>0.02352117220479817</v>
+        <v>0.04334392146142708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>24.890459</v>
       </c>
       <c r="I11">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J11">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N11">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O11">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P11">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q11">
-        <v>1176.277042225243</v>
+        <v>695.9637115571628</v>
       </c>
       <c r="R11">
-        <v>10586.49338002719</v>
+        <v>6263.673404014465</v>
       </c>
       <c r="S11">
-        <v>0.2141225804934484</v>
+        <v>0.175614877371197</v>
       </c>
       <c r="T11">
-        <v>0.2141225804934484</v>
+        <v>0.175614877371197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H12">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I12">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J12">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N12">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O12">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P12">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q12">
-        <v>18.117485491898</v>
+        <v>22.28576813061466</v>
       </c>
       <c r="R12">
-        <v>163.057369427082</v>
+        <v>200.571913175532</v>
       </c>
       <c r="S12">
-        <v>0.003298000901419412</v>
+        <v>0.005623443251982504</v>
       </c>
       <c r="T12">
-        <v>0.003298000901419412</v>
+        <v>0.005623443251982506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H13">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I13">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J13">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N13">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O13">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P13">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q13">
-        <v>21.75186538217</v>
+        <v>26.43906060937166</v>
       </c>
       <c r="R13">
-        <v>195.76678843953</v>
+        <v>237.951545484345</v>
       </c>
       <c r="S13">
-        <v>0.003959582121372799</v>
+        <v>0.006671457591281454</v>
       </c>
       <c r="T13">
-        <v>0.003959582121372799</v>
+        <v>0.006671457591281457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H14">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I14">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J14">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q14">
-        <v>29.485123181886</v>
+        <v>12.282843056087</v>
       </c>
       <c r="R14">
-        <v>265.366108636974</v>
+        <v>110.545587504783</v>
       </c>
       <c r="S14">
-        <v>0.005367299059011709</v>
+        <v>0.003099371333942328</v>
       </c>
       <c r="T14">
-        <v>0.005367299059011709</v>
+        <v>0.003099371333942329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H15">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I15">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J15">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N15">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O15">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P15">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q15">
-        <v>2.222910103108</v>
+        <v>3.591854957328</v>
       </c>
       <c r="R15">
-        <v>20.006190927972</v>
+        <v>32.326694615952</v>
       </c>
       <c r="S15">
-        <v>0.0004046455302587625</v>
+        <v>0.0009063449105053999</v>
       </c>
       <c r="T15">
-        <v>0.0004046455302587625</v>
+        <v>0.0009063449105054004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H16">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I16">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J16">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N16">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O16">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P16">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q16">
-        <v>20.236034298722</v>
+        <v>14.55297874761133</v>
       </c>
       <c r="R16">
-        <v>182.124308688498</v>
+        <v>130.976808728502</v>
       </c>
       <c r="S16">
-        <v>0.003683649112796819</v>
+        <v>0.003672202351512241</v>
       </c>
       <c r="T16">
-        <v>0.003683649112796819</v>
+        <v>0.003672202351512242</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H17">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I17">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J17">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N17">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O17">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P17">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q17">
-        <v>0.3584131311901111</v>
+        <v>0.003211372366666666</v>
       </c>
       <c r="R17">
-        <v>3.225718180711</v>
+        <v>0.0289023513</v>
       </c>
       <c r="S17">
-        <v>6.524342631730782E-05</v>
+        <v>8.10336451456056E-07</v>
       </c>
       <c r="T17">
-        <v>6.524342631730782E-05</v>
+        <v>8.103364514560562E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H18">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I18">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J18">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N18">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O18">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P18">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q18">
-        <v>0.4303110486461111</v>
+        <v>0.003809860541666666</v>
       </c>
       <c r="R18">
-        <v>3.872799437815</v>
+        <v>0.034288744875</v>
       </c>
       <c r="S18">
-        <v>7.833130193261352E-05</v>
+        <v>9.61354996985644E-07</v>
       </c>
       <c r="T18">
-        <v>7.833130193261352E-05</v>
+        <v>9.613549969856442E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H19">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I19">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J19">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N19">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O19">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P19">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q19">
-        <v>0.5832959175196667</v>
+        <v>0.001769953925</v>
       </c>
       <c r="R19">
-        <v>5.249663257677</v>
+        <v>0.015929585325</v>
       </c>
       <c r="S19">
-        <v>0.0001061797710633958</v>
+        <v>4.466184606034791E-07</v>
       </c>
       <c r="T19">
-        <v>0.0001061797710633958</v>
+        <v>4.466184606034793E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H20">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I20">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J20">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q20">
-        <v>0.04397520675622223</v>
+        <v>0.0005175851999999999</v>
       </c>
       <c r="R20">
-        <v>0.395776860806</v>
+        <v>0.0046582668</v>
       </c>
       <c r="S20">
-        <v>8.004988969743199E-06</v>
+        <v>1.306040242008807E-07</v>
       </c>
       <c r="T20">
-        <v>8.004988969743199E-06</v>
+        <v>1.306040242008808E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H21">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I21">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J21">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N21">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O21">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P21">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q21">
-        <v>0.4003237877087778</v>
+        <v>0.002097079783333333</v>
       </c>
       <c r="R21">
-        <v>3.602914089379</v>
+        <v>0.01887371805</v>
       </c>
       <c r="S21">
-        <v>7.287259665882424E-05</v>
+        <v>5.29163234910203E-07</v>
       </c>
       <c r="T21">
-        <v>7.287259665882423E-05</v>
+        <v>5.291632349102032E-07</v>
       </c>
     </row>
   </sheetData>
